--- a/Code/Results/Cases/Case_0_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_95/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.253201624431532</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.261948157415885</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.23896101215487</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.264593522279058</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.257355432930642</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.26421982276523</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.241276631757567</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.266860238048071</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.259141021866088</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.261274684570752</v>
+      </c>
+      <c r="D3">
+        <v>1.269967458815741</v>
+      </c>
+      <c r="E3">
+        <v>1.246431140111471</v>
+      </c>
+      <c r="F3">
+        <v>1.272547338133117</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.265120465913775</v>
+      </c>
+      <c r="K3">
+        <v>1.2720734994113</v>
+      </c>
+      <c r="L3">
+        <v>1.248578525788973</v>
+      </c>
+      <c r="M3">
+        <v>1.274648944971019</v>
+      </c>
+      <c r="N3">
+        <v>1.266917082086718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.266402729835498</v>
+      </c>
+      <c r="D4">
+        <v>1.275061002915677</v>
+      </c>
+      <c r="E4">
+        <v>1.251173468686543</v>
+      </c>
+      <c r="F4">
+        <v>1.277598823491368</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.270050744794229</v>
+      </c>
+      <c r="K4">
+        <v>1.277060462043522</v>
+      </c>
+      <c r="L4">
+        <v>1.253212536582357</v>
+      </c>
+      <c r="M4">
+        <v>1.279594166210967</v>
+      </c>
+      <c r="N4">
+        <v>1.271854362528693</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.268536815106071</v>
+      </c>
+      <c r="D5">
+        <v>1.277180644500067</v>
+      </c>
+      <c r="E5">
+        <v>1.253146381495308</v>
+      </c>
+      <c r="F5">
+        <v>1.279700851582601</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.272102025873745</v>
+      </c>
+      <c r="K5">
+        <v>1.279135421974119</v>
+      </c>
+      <c r="L5">
+        <v>1.255140026812098</v>
+      </c>
+      <c r="M5">
+        <v>1.281651642362877</v>
+      </c>
+      <c r="N5">
+        <v>1.273908556662626</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.26889389527774</v>
+      </c>
+      <c r="D6">
+        <v>1.277535302859001</v>
+      </c>
+      <c r="E6">
+        <v>1.253476455626705</v>
+      </c>
+      <c r="F6">
+        <v>1.280052556340709</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.272445221664566</v>
+      </c>
+      <c r="K6">
+        <v>1.279482584987344</v>
+      </c>
+      <c r="L6">
+        <v>1.255462480563544</v>
+      </c>
+      <c r="M6">
+        <v>1.28199587334443</v>
+      </c>
+      <c r="N6">
+        <v>1.274252239830836</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.266431329520965</v>
+      </c>
+      <c r="D7">
+        <v>1.275089409375278</v>
+      </c>
+      <c r="E7">
+        <v>1.251199911012215</v>
+      </c>
+      <c r="F7">
+        <v>1.277626994340802</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.270078236765751</v>
+      </c>
+      <c r="K7">
+        <v>1.2770882709929</v>
+      </c>
+      <c r="L7">
+        <v>1.253238371540019</v>
+      </c>
+      <c r="M7">
+        <v>1.279621741297671</v>
+      </c>
+      <c r="N7">
+        <v>1.271881893541968</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.255950516415434</v>
+      </c>
+      <c r="D8">
+        <v>1.264678817854892</v>
+      </c>
+      <c r="E8">
+        <v>1.24150517805932</v>
+      </c>
+      <c r="F8">
+        <v>1.267301981813696</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.259999884223496</v>
+      </c>
+      <c r="K8">
+        <v>1.266894377819369</v>
+      </c>
+      <c r="L8">
+        <v>1.243763820758212</v>
+      </c>
+      <c r="M8">
+        <v>1.269512770068132</v>
+      </c>
+      <c r="N8">
+        <v>1.2617892285831</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1.23669139995213</v>
+      </c>
+      <c r="D9">
+        <v>1.245545981487309</v>
+      </c>
+      <c r="E9">
+        <v>1.223668747871698</v>
+      </c>
+      <c r="F9">
+        <v>1.248322713783136</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.241463441577075</v>
+      </c>
+      <c r="K9">
+        <v>1.248148663108566</v>
+      </c>
+      <c r="L9">
+        <v>1.22632025801208</v>
+      </c>
+      <c r="M9">
+        <v>1.250919328732603</v>
+      </c>
+      <c r="N9">
+        <v>1.243226462061962</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>1.223233534826081</v>
+      </c>
+      <c r="D10">
+        <v>1.232174566939859</v>
+      </c>
+      <c r="E10">
+        <v>1.211190126376894</v>
+      </c>
+      <c r="F10">
+        <v>1.235056081499806</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.228498911506114</v>
+      </c>
+      <c r="K10">
+        <v>1.235040031210012</v>
+      </c>
+      <c r="L10">
+        <v>1.214107945445578</v>
+      </c>
+      <c r="M10">
+        <v>1.237914506006752</v>
+      </c>
+      <c r="N10">
+        <v>1.230243520871248</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1.217237714658182</v>
+      </c>
+      <c r="D11">
+        <v>1.22621685794484</v>
+      </c>
+      <c r="E11">
+        <v>1.205627025130951</v>
+      </c>
+      <c r="F11">
+        <v>1.229144450511817</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.222720072915523</v>
+      </c>
+      <c r="K11">
+        <v>1.229197514183939</v>
+      </c>
+      <c r="L11">
+        <v>1.208661480564072</v>
+      </c>
+      <c r="M11">
+        <v>1.232117615109646</v>
+      </c>
+      <c r="N11">
+        <v>1.224456475667015</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>1.214983231080318</v>
+      </c>
+      <c r="D12">
+        <v>1.223976645713589</v>
+      </c>
+      <c r="E12">
+        <v>1.203534711861953</v>
+      </c>
+      <c r="F12">
+        <v>1.226921472779213</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.220546750361856</v>
+      </c>
+      <c r="K12">
+        <v>1.227000327870022</v>
+      </c>
+      <c r="L12">
+        <v>1.206612716318357</v>
+      </c>
+      <c r="M12">
+        <v>1.229937490429885</v>
+      </c>
+      <c r="N12">
+        <v>1.222280066746039</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1.215468099168291</v>
+      </c>
+      <c r="D13">
+        <v>1.224458447108193</v>
+      </c>
+      <c r="E13">
+        <v>1.203984726476142</v>
+      </c>
+      <c r="F13">
+        <v>1.227399571705565</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.221014182584202</v>
+      </c>
+      <c r="K13">
+        <v>1.227472888799014</v>
+      </c>
+      <c r="L13">
+        <v>1.207053378883199</v>
+      </c>
+      <c r="M13">
+        <v>1.23040638620511</v>
+      </c>
+      <c r="N13">
+        <v>1.222748162775756</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1.217051929259683</v>
+      </c>
+      <c r="D14">
+        <v>1.226032249788846</v>
+      </c>
+      <c r="E14">
+        <v>1.205454614610791</v>
+      </c>
+      <c r="F14">
+        <v>1.228961264456542</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.222540984437515</v>
+      </c>
+      <c r="K14">
+        <v>1.229016457531042</v>
+      </c>
+      <c r="L14">
+        <v>1.208492665066888</v>
+      </c>
+      <c r="M14">
+        <v>1.231937966373438</v>
+      </c>
+      <c r="N14">
+        <v>1.224277132862827</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>1.218024087709075</v>
+      </c>
+      <c r="D15">
+        <v>1.226998245702722</v>
+      </c>
+      <c r="E15">
+        <v>1.206356764544259</v>
+      </c>
+      <c r="F15">
+        <v>1.229919815229635</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.223478082557585</v>
+      </c>
+      <c r="K15">
+        <v>1.22996385777642</v>
+      </c>
+      <c r="L15">
+        <v>1.209375990784613</v>
+      </c>
+      <c r="M15">
+        <v>1.232877995577138</v>
+      </c>
+      <c r="N15">
+        <v>1.225215561769714</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>1.223627736868839</v>
+      </c>
+      <c r="D16">
+        <v>1.232566255054516</v>
+      </c>
+      <c r="E16">
+        <v>1.211555804581169</v>
+      </c>
+      <c r="F16">
+        <v>1.23544472753018</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.228878788981657</v>
+      </c>
+      <c r="K16">
+        <v>1.235424106298229</v>
+      </c>
+      <c r="L16">
+        <v>1.214465912941743</v>
+      </c>
+      <c r="M16">
+        <v>1.238295568321516</v>
+      </c>
+      <c r="N16">
+        <v>1.230623937816378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>1.227096259778591</v>
+      </c>
+      <c r="D17">
+        <v>1.236012612463482</v>
+      </c>
+      <c r="E17">
+        <v>1.214772945487482</v>
+      </c>
+      <c r="F17">
+        <v>1.238864249205257</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.232220951858462</v>
+      </c>
+      <c r="K17">
+        <v>1.238803262948576</v>
+      </c>
+      <c r="L17">
+        <v>1.217614979081863</v>
+      </c>
+      <c r="M17">
+        <v>1.241648145030033</v>
+      </c>
+      <c r="N17">
+        <v>1.23397084694782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1.229103283938978</v>
+      </c>
+      <c r="D18">
+        <v>1.238006772259015</v>
+      </c>
+      <c r="E18">
+        <v>1.216634172624303</v>
+      </c>
+      <c r="F18">
+        <v>1.240842823411025</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.234154592678667</v>
+      </c>
+      <c r="K18">
+        <v>1.240758359294728</v>
+      </c>
+      <c r="L18">
+        <v>1.219436625089209</v>
+      </c>
+      <c r="M18">
+        <v>1.243587802072064</v>
+      </c>
+      <c r="N18">
+        <v>1.235907233759781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1.229784954695747</v>
+      </c>
+      <c r="D19">
+        <v>1.238684067138371</v>
+      </c>
+      <c r="E19">
+        <v>1.217266267311627</v>
+      </c>
+      <c r="F19">
+        <v>1.241514815040043</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.234811294246966</v>
+      </c>
+      <c r="K19">
+        <v>1.241422356422094</v>
+      </c>
+      <c r="L19">
+        <v>1.220055244200128</v>
+      </c>
+      <c r="M19">
+        <v>1.24424654534687</v>
+      </c>
+      <c r="N19">
+        <v>1.236564867919631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>1.226725800321327</v>
+      </c>
+      <c r="D20">
+        <v>1.235644524401517</v>
+      </c>
+      <c r="E20">
+        <v>1.214429370190762</v>
+      </c>
+      <c r="F20">
+        <v>1.238499033319299</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.231864016095691</v>
+      </c>
+      <c r="K20">
+        <v>1.238442370882077</v>
+      </c>
+      <c r="L20">
+        <v>1.217278694375986</v>
+      </c>
+      <c r="M20">
+        <v>1.241290097999803</v>
+      </c>
+      <c r="N20">
+        <v>1.233613404295324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>1.216586303807218</v>
+      </c>
+      <c r="D21">
+        <v>1.225569573865616</v>
+      </c>
+      <c r="E21">
+        <v>1.205022501368549</v>
+      </c>
+      <c r="F21">
+        <v>1.228502151208574</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.222092136296984</v>
+      </c>
+      <c r="K21">
+        <v>1.228562677935714</v>
+      </c>
+      <c r="L21">
+        <v>1.208069556898894</v>
+      </c>
+      <c r="M21">
+        <v>1.231487713856308</v>
+      </c>
+      <c r="N21">
+        <v>1.223827647306453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1.21005168316416</v>
+      </c>
+      <c r="D22">
+        <v>1.219076209788662</v>
+      </c>
+      <c r="E22">
+        <v>1.198956915008865</v>
+      </c>
+      <c r="F22">
+        <v>1.222058568142574</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.215791949901107</v>
+      </c>
+      <c r="K22">
+        <v>1.222193475426181</v>
+      </c>
+      <c r="L22">
+        <v>1.202129609293009</v>
+      </c>
+      <c r="M22">
+        <v>1.225167785477582</v>
+      </c>
+      <c r="N22">
+        <v>1.217518513923252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>1.213531669645214</v>
+      </c>
+      <c r="D23">
+        <v>1.222534256664302</v>
+      </c>
+      <c r="E23">
+        <v>1.202187413511147</v>
+      </c>
+      <c r="F23">
+        <v>1.225490154505759</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1.219147324405466</v>
+      </c>
+      <c r="K23">
+        <v>1.225585559799641</v>
+      </c>
+      <c r="L23">
+        <v>1.20529336998828</v>
+      </c>
+      <c r="M23">
+        <v>1.228533680977047</v>
+      </c>
+      <c r="N23">
+        <v>1.220878653444275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>1.226893244626413</v>
+      </c>
+      <c r="D24">
+        <v>1.23581089697712</v>
+      </c>
+      <c r="E24">
+        <v>1.214584664146125</v>
+      </c>
+      <c r="F24">
+        <v>1.238664107875348</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.232025348639742</v>
+      </c>
+      <c r="K24">
+        <v>1.238605491486146</v>
+      </c>
+      <c r="L24">
+        <v>1.217430693640528</v>
+      </c>
+      <c r="M24">
+        <v>1.241451932856568</v>
+      </c>
+      <c r="N24">
+        <v>1.233774965950093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.241772531466109</v>
+      </c>
+      <c r="D25">
+        <v>1.250594111335752</v>
+      </c>
+      <c r="E25">
+        <v>1.228377091559277</v>
+      </c>
+      <c r="F25">
+        <v>1.253330761569043</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.246355903425496</v>
+      </c>
+      <c r="K25">
+        <v>1.25309597479493</v>
+      </c>
+      <c r="L25">
+        <v>1.230926348549288</v>
+      </c>
+      <c r="M25">
+        <v>1.255826911093398</v>
+      </c>
+      <c r="N25">
+        <v>1.24812587176738</v>
       </c>
     </row>
   </sheetData>
